--- a/Background/LHQ3 results raw.xlsx
+++ b/Background/LHQ3 results raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/chath1626_uit_no/Documents/LESS-Project-with-RAs-2/Background/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/stpis0397_uit_no/Documents/LESS-Project-with-RAs-2/Background/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1BCBA99251AA9A10B0C00D2B08C520B8B10C58C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0FB180C-AD27-447D-A727-6833DFE19E45}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1BCBA99251AA9A10B0C00D2B08C520B8B10C58C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55753789-E818-4C96-9583-09A6CF5487EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16485" yWindow="3885" windowWidth="18810" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="219">
   <si>
     <t>LHQ3 Raw Data</t>
   </si>
@@ -756,6 +756,9 @@
   <si>
     <t>I use Toten-dialect in Norwegian, but its closer to Gjøvik-dialect. 
  I speak somewhat a mix of british and american english.</t>
+  </si>
+  <si>
+    <t>wjob1</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KV24"/>
+  <dimension ref="A1:KV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KE1" workbookViewId="0">
-      <selection activeCell="KT21" sqref="KT21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18061,6 +18064,11 @@
         <v>217</v>
       </c>
     </row>
+    <row r="25" spans="1:308" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:KV1"/>
